--- a/src/农村公路导入模板_Final.xlsx
+++ b/src/农村公路导入模板_Final.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Life Style\片区软件产品\数据采集工具集\roadMap\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02E18E5-1537-4512-BFBB-1BEEEC4B3E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000D1FA5-C5BC-4027-86BA-CFBB87C473EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13070" yWindow="3380" windowWidth="13180" windowHeight="23260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信息填写" sheetId="1" r:id="rId1"/>
     <sheet name="填写说明" sheetId="2" r:id="rId2"/>
-    <sheet name="下拉选项" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="下拉选项" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -123,15 +123,6 @@
     <t>上行/下行</t>
   </si>
   <si>
-    <t>[103.93815560196539,30.59308015442757]</t>
-  </si>
-  <si>
-    <t>[103.94047249559775,30.59441859058116]</t>
-  </si>
-  <si>
-    <t>[[103.93815560196539,30.59308015442757],[103.94047249559775,30.59441859058116],[103.94047249559775,30.59441859058116]]</t>
-  </si>
-  <si>
     <t>闵行区</t>
   </si>
   <si>
@@ -245,6 +236,18 @@
   </si>
   <si>
     <t>K9+500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[103.93815560196539,30.59308015442757]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[103.94047249559775,30.59441859058116]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[103.93815560196539,30.59308015442757],[103.94047249559775,30.59441859058116],[103.94047249559775,30.59441859058116]]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -740,9 +743,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -819,7 +822,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>9</v>
@@ -890,7 +893,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>30</v>
@@ -908,28 +911,28 @@
         <v>46021</v>
       </c>
       <c r="N3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="R3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="S3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="T3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="U3" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
@@ -996,10 +999,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -1007,7 +1010,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -1015,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -1023,15 +1026,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -1039,7 +1042,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -1047,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -1055,7 +1058,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -1063,7 +1066,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -1071,23 +1074,23 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -1095,7 +1098,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -1103,15 +1106,15 @@
         <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="33" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1127,7 +1130,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1137,7 +1140,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
         <v>28</v>
@@ -1146,7 +1149,7 @@
         <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1">
         <v>1</v>
@@ -1154,16 +1157,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" t="s">
-        <v>63</v>
       </c>
       <c r="I2" s="1">
         <v>73415</v>
@@ -1171,16 +1174,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
         <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1193,27 +1196,27 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>